--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angpt1-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angpt1-Tek.xlsx
@@ -540,10 +540,10 @@
         <v>0.280285</v>
       </c>
       <c r="I2">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="J2">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.413899</v>
+        <v>71.05094633333333</v>
       </c>
       <c r="N2">
-        <v>118.241697</v>
+        <v>213.152839</v>
       </c>
       <c r="O2">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932695</v>
       </c>
       <c r="P2">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932696</v>
       </c>
       <c r="Q2">
-        <v>3.682374893738333</v>
+        <v>6.638171497679444</v>
       </c>
       <c r="R2">
-        <v>33.141374043645</v>
+        <v>59.743543479115</v>
       </c>
       <c r="S2">
-        <v>0.003633948541939286</v>
+        <v>0.003871630252202236</v>
       </c>
       <c r="T2">
-        <v>0.003633948541939286</v>
+        <v>0.003871630252202237</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.280285</v>
       </c>
       <c r="I3">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="J3">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>34.223758</v>
       </c>
       <c r="O3">
-        <v>0.2115830874897988</v>
+        <v>0.1323102827659759</v>
       </c>
       <c r="P3">
-        <v>0.2115830874897987</v>
+        <v>0.132310282765976</v>
       </c>
       <c r="Q3">
         <v>1.065822890114444</v>
@@ -632,10 +632,10 @@
         <v>9.59240601103</v>
       </c>
       <c r="S3">
-        <v>0.001051806415496413</v>
+        <v>0.0006216278302389785</v>
       </c>
       <c r="T3">
-        <v>0.001051806415496413</v>
+        <v>0.0006216278302389786</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.280285</v>
       </c>
       <c r="I4">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="J4">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.095153333333334</v>
+        <v>3.762092333333333</v>
       </c>
       <c r="N4">
-        <v>9.28546</v>
+        <v>11.286277</v>
       </c>
       <c r="O4">
-        <v>0.05740591946574151</v>
+        <v>0.04363315394075456</v>
       </c>
       <c r="P4">
-        <v>0.0574059194657415</v>
+        <v>0.04363315394075455</v>
       </c>
       <c r="Q4">
-        <v>0.2891750173444445</v>
+        <v>0.3514860165494444</v>
       </c>
       <c r="R4">
-        <v>2.6025751561</v>
+        <v>3.163374148945</v>
       </c>
       <c r="S4">
-        <v>0.0002853721207015117</v>
+        <v>0.0002049998098685155</v>
       </c>
       <c r="T4">
-        <v>0.0002853721207015116</v>
+        <v>0.0002049998098685155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>42.867363</v>
       </c>
       <c r="I5">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="J5">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.413899</v>
+        <v>71.05094633333333</v>
       </c>
       <c r="N5">
-        <v>118.241697</v>
+        <v>213.152839</v>
       </c>
       <c r="O5">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932695</v>
       </c>
       <c r="P5">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932696</v>
       </c>
       <c r="Q5">
-        <v>563.189971892779</v>
+        <v>1015.255569321506</v>
       </c>
       <c r="R5">
-        <v>5068.709747035011</v>
+        <v>9137.300123893556</v>
       </c>
       <c r="S5">
-        <v>0.5557835462855025</v>
+        <v>0.5921350747379803</v>
       </c>
       <c r="T5">
-        <v>0.5557835462855025</v>
+        <v>0.5921350747379804</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>42.867363</v>
       </c>
       <c r="I6">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="J6">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>34.223758</v>
       </c>
       <c r="O6">
-        <v>0.2115830874897988</v>
+        <v>0.1323102827659759</v>
       </c>
       <c r="P6">
-        <v>0.2115830874897987</v>
+        <v>0.132310282765976</v>
       </c>
       <c r="Q6">
         <v>163.0091397122393</v>
@@ -818,10 +818,10 @@
         <v>1467.082257410154</v>
       </c>
       <c r="S6">
-        <v>0.1608654313245931</v>
+        <v>0.09507303583765335</v>
       </c>
       <c r="T6">
-        <v>0.1608654313245931</v>
+        <v>0.09507303583765336</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>42.867363</v>
       </c>
       <c r="I7">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="J7">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.095153333333334</v>
+        <v>3.762092333333333</v>
       </c>
       <c r="N7">
-        <v>9.28546</v>
+        <v>11.286277</v>
       </c>
       <c r="O7">
-        <v>0.05740591946574151</v>
+        <v>0.04363315394075456</v>
       </c>
       <c r="P7">
-        <v>0.0574059194657415</v>
+        <v>0.04363315394075455</v>
       </c>
       <c r="Q7">
-        <v>44.22702049355334</v>
+        <v>53.75699256417233</v>
       </c>
       <c r="R7">
-        <v>398.04318444198</v>
+        <v>483.8129330775509</v>
       </c>
       <c r="S7">
-        <v>0.04364539767804739</v>
+        <v>0.03135309154811937</v>
       </c>
       <c r="T7">
-        <v>0.04364539767804738</v>
+        <v>0.03135309154811936</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.411646</v>
+        <v>5.503190333333333</v>
       </c>
       <c r="H8">
-        <v>13.234938</v>
+        <v>16.509571</v>
       </c>
       <c r="I8">
-        <v>0.2347344976337197</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="J8">
-        <v>0.2347344976337198</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.413899</v>
+        <v>71.05094633333333</v>
       </c>
       <c r="N8">
-        <v>118.241697</v>
+        <v>213.152839</v>
       </c>
       <c r="O8">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932695</v>
       </c>
       <c r="P8">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932696</v>
       </c>
       <c r="Q8">
-        <v>173.880169867754</v>
+        <v>391.0068810357854</v>
       </c>
       <c r="R8">
-        <v>1564.921528809786</v>
+        <v>3519.061929322069</v>
       </c>
       <c r="S8">
-        <v>0.1715934982170178</v>
+        <v>0.228049858303087</v>
       </c>
       <c r="T8">
-        <v>0.1715934982170179</v>
+        <v>0.228049858303087</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.411646</v>
+        <v>5.503190333333333</v>
       </c>
       <c r="H9">
-        <v>13.234938</v>
+        <v>16.509571</v>
       </c>
       <c r="I9">
-        <v>0.2347344976337197</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="J9">
-        <v>0.2347344976337198</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>34.223758</v>
       </c>
       <c r="O9">
-        <v>0.2115830874897988</v>
+        <v>0.1323102827659759</v>
       </c>
       <c r="P9">
-        <v>0.2115830874897987</v>
+        <v>0.132310282765976</v>
       </c>
       <c r="Q9">
-        <v>50.32770169522267</v>
+        <v>62.77995139864645</v>
       </c>
       <c r="R9">
-        <v>452.9493152570041</v>
+        <v>565.0195625878181</v>
       </c>
       <c r="S9">
-        <v>0.04966584974970928</v>
+        <v>0.03661561909808361</v>
       </c>
       <c r="T9">
-        <v>0.04966584974970928</v>
+        <v>0.03661561909808361</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.411646</v>
+        <v>5.503190333333333</v>
       </c>
       <c r="H10">
-        <v>13.234938</v>
+        <v>16.509571</v>
       </c>
       <c r="I10">
-        <v>0.2347344976337197</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="J10">
-        <v>0.2347344976337198</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.095153333333334</v>
+        <v>3.762092333333333</v>
       </c>
       <c r="N10">
-        <v>9.28546</v>
+        <v>11.286277</v>
       </c>
       <c r="O10">
-        <v>0.05740591946574151</v>
+        <v>0.04363315394075456</v>
       </c>
       <c r="P10">
-        <v>0.0574059194657415</v>
+        <v>0.04363315394075455</v>
       </c>
       <c r="Q10">
-        <v>13.65472082238667</v>
+        <v>20.70351016190744</v>
       </c>
       <c r="R10">
-        <v>122.89248740148</v>
+        <v>186.331591457167</v>
       </c>
       <c r="S10">
-        <v>0.01347514966699261</v>
+        <v>0.01207506258276668</v>
       </c>
       <c r="T10">
-        <v>0.01347514966699261</v>
+        <v>0.01207506258276667</v>
       </c>
     </row>
   </sheetData>
